--- a/DataFiles/Testdata.xlsx
+++ b/DataFiles/Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\com.mci\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757434E7-7149-4B34-B0A9-61AC172D66C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0887647-9632-49D0-A53E-50FC7C1F7D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D9C0BF55-4DFF-4407-BAE5-9315A2418364}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D9C0BF55-4DFF-4407-BAE5-9315A2418364}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,11 +106,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -429,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A2E9F2-0253-4105-8747-793233E24BF6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -467,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15C1F8A-EC99-44D0-BD4C-D3768F639B87}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="A14:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +556,7 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
